--- a/classification/droptc/sentence/bert-base-uncased/unfreeze/67351593/prediction.xlsx
+++ b/classification/droptc/sentence/bert-base-uncased/unfreeze/67351593/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.991356372833252</v>
+        <v>0.9999392032623291</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9983994364738464</v>
+        <v>0.999972939491272</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9986074566841125</v>
+        <v>0.9999496936798096</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9982257485389709</v>
+        <v>0.9996712207794189</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9984437823295593</v>
+        <v>0.9999700784683228</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9972411394119263</v>
+        <v>0.9999688863754272</v>
       </c>
     </row>
     <row r="8">
@@ -646,19 +646,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9704781174659729</v>
+        <v>0.9999704360961914</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9986664056777954</v>
+        <v>0.999955415725708</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8936402201652527</v>
+        <v>0.9999704360961914</v>
       </c>
     </row>
     <row r="11">
@@ -735,14 +735,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9306473731994629</v>
+        <v>0.9889969825744629</v>
       </c>
     </row>
     <row r="12">
@@ -758,19 +758,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9803967475891113</v>
+        <v>0.9999725818634033</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.998450756072998</v>
+        <v>0.9998111128807068</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9986805319786072</v>
+        <v>0.9999607801437378</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9925284385681152</v>
+        <v>0.9999665021896362</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +870,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9346581101417542</v>
+        <v>0.9999691247940063</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9967959523200989</v>
+        <v>0.9999715089797974</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9899383783340454</v>
+        <v>0.9992135763168335</v>
       </c>
     </row>
     <row r="19">
@@ -954,19 +954,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8906398415565491</v>
+        <v>0.999971866607666</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.997312068939209</v>
+        <v>0.9999426603317261</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9945099353790283</v>
+        <v>0.9999721050262451</v>
       </c>
     </row>
     <row r="22">
@@ -1038,19 +1038,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9877092838287354</v>
+        <v>0.9999649524688721</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.891012966632843</v>
+        <v>0.9999685287475586</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9979428648948669</v>
+        <v>0.9999692440032959</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9973350167274475</v>
+        <v>0.9995999932289124</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9491447806358337</v>
+        <v>0.9980837106704712</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9971621632575989</v>
+        <v>0.9999707937240601</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9985912442207336</v>
+        <v>0.999972939491272</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9985902905464172</v>
+        <v>0.9999617338180542</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9975630044937134</v>
+        <v>0.9999692440032959</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9984386563301086</v>
+        <v>0.9999650716781616</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9982128143310547</v>
+        <v>0.9999657869338989</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9980415105819702</v>
+        <v>0.9995798468589783</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9069019556045532</v>
+        <v>0.9973849654197693</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9857611060142517</v>
+        <v>0.9998408555984497</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9982994198799133</v>
+        <v>0.9999724626541138</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9859845638275146</v>
+        <v>0.9998375177383423</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9977978467941284</v>
+        <v>0.999971866607666</v>
       </c>
     </row>
     <row r="39">
@@ -1514,19 +1514,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E39" t="b">
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9984650611877441</v>
+        <v>0.9951481223106384</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9932224750518799</v>
+        <v>0.9570158720016479</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9865749478340149</v>
+        <v>0.9999698400497437</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9708576202392578</v>
+        <v>0.9986518025398254</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9984920024871826</v>
+        <v>0.9996044039726257</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.991748571395874</v>
+        <v>0.9998420476913452</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9983938336372375</v>
+        <v>0.9995747208595276</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9986072182655334</v>
+        <v>0.9994015693664551</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9018644094467163</v>
+        <v>0.9995543360710144</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9718400239944458</v>
+        <v>0.9996078610420227</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9973512887954712</v>
+        <v>0.9999716281890869</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9986664056777954</v>
+        <v>0.9995678067207336</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9984219074249268</v>
+        <v>0.9986193180084229</v>
       </c>
     </row>
     <row r="52">
@@ -1878,19 +1878,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E52" t="b">
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9877755641937256</v>
+        <v>0.9999712705612183</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9985969662666321</v>
+        <v>0.9995678067207336</v>
       </c>
     </row>
     <row r="54">
@@ -1939,14 +1939,14 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9877755641937256</v>
+        <v>0.9995042085647583</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9986523985862732</v>
+        <v>0.9999706745147705</v>
       </c>
     </row>
     <row r="56">
@@ -1990,19 +1990,19 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E56" t="b">
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9862638711929321</v>
+        <v>0.9999707937240601</v>
       </c>
     </row>
     <row r="57">
@@ -2018,19 +2018,19 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E57" t="b">
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9927504062652588</v>
+        <v>0.9999710321426392</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9865006804466248</v>
+        <v>0.9998047947883606</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9985806941986084</v>
+        <v>0.9999681711196899</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9978854060173035</v>
+        <v>0.9999444484710693</v>
       </c>
     </row>
     <row r="61">
@@ -2130,19 +2130,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E61" t="b">
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9920932650566101</v>
+        <v>0.9999663829803467</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9984704852104187</v>
+        <v>0.9999713897705078</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.98604416847229</v>
+        <v>0.9998352527618408</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9849536418914795</v>
+        <v>0.8910168409347534</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9985248446464539</v>
+        <v>0.9998371601104736</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9709876775741577</v>
+        <v>0.9998371601104736</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9983208775520325</v>
+        <v>0.9998218417167664</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9982712268829346</v>
+        <v>0.9998371601104736</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9986193180084229</v>
+        <v>0.9997784495353699</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9985002279281616</v>
+        <v>0.9999648332595825</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.8349191546440125</v>
+        <v>0.9991063475608826</v>
       </c>
     </row>
     <row r="72">
@@ -2438,19 +2438,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9858772754669189</v>
+        <v>0.999970555305481</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9985331296920776</v>
+        <v>0.9998319149017334</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9979832172393799</v>
+        <v>0.9999535083770752</v>
       </c>
     </row>
     <row r="75">
@@ -2522,19 +2522,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E75" t="b">
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9857542514801025</v>
+        <v>0.9999693632125854</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9945036172866821</v>
+        <v>0.9998319149017334</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9967768788337708</v>
+        <v>0.999970555305481</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9986212253570557</v>
+        <v>0.9998319149017334</v>
       </c>
     </row>
     <row r="79">
@@ -2634,19 +2634,19 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E79" t="b">
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9925017356872559</v>
+        <v>0.999971866607666</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9931623935699463</v>
+        <v>0.9998351335525513</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9986664056777954</v>
+        <v>0.9999692440032959</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9984539747238159</v>
+        <v>0.9998351335525513</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9986664056777954</v>
+        <v>0.9999676942825317</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9985790252685547</v>
+        <v>0.9999676942825317</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.998426079750061</v>
+        <v>0.9999716281890869</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9980934262275696</v>
+        <v>0.9998372793197632</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9980502128601074</v>
+        <v>0.9999432563781738</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.992214024066925</v>
+        <v>0.9998317956924438</v>
       </c>
     </row>
     <row r="89">
@@ -2914,19 +2914,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E89" t="b">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.8622449040412903</v>
+        <v>0.9999698400497437</v>
       </c>
     </row>
     <row r="90">
@@ -2942,19 +2942,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9806602597236633</v>
+        <v>0.999971866607666</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9982971549034119</v>
+        <v>0.9999717473983765</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9979945421218872</v>
+        <v>0.9999719858169556</v>
       </c>
     </row>
     <row r="93">
@@ -3026,19 +3026,19 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E93" t="b">
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.991356372833252</v>
+        <v>0.9999717473983765</v>
       </c>
     </row>
     <row r="94">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E94" t="b">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.984514057636261</v>
+        <v>0.999971866607666</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9977185726165771</v>
+        <v>0.9999707937240601</v>
       </c>
     </row>
     <row r="96">
@@ -3110,19 +3110,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9718000292778015</v>
+        <v>0.9999603033065796</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9566436409950256</v>
+        <v>0.9986724853515625</v>
       </c>
     </row>
     <row r="98">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="E98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9970135688781738</v>
+        <v>0.9999703168869019</v>
       </c>
     </row>
     <row r="99">
@@ -3199,14 +3199,14 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9986664056777954</v>
+        <v>0.5630642771720886</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9985337257385254</v>
+        <v>0.9999303817749023</v>
       </c>
     </row>
     <row r="101">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9251768589019775</v>
+        <v>0.9999700784683228</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8156477212905884</v>
+        <v>0.9756609797477722</v>
       </c>
     </row>
     <row r="103">
@@ -3306,19 +3306,19 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9897660613059998</v>
+        <v>0.9999231100082397</v>
       </c>
     </row>
     <row r="104">
@@ -3334,19 +3334,19 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E104" t="b">
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9760388731956482</v>
+        <v>0.9999667406082153</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9982230067253113</v>
+        <v>0.9998049139976501</v>
       </c>
     </row>
     <row r="106">
@@ -3390,19 +3390,19 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E106" t="b">
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9570885300636292</v>
+        <v>0.9999704360961914</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.998196542263031</v>
+        <v>0.9995261430740356</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9156538248062134</v>
+        <v>0.9998008608818054</v>
       </c>
     </row>
     <row r="109">
@@ -3474,19 +3474,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E109" t="b">
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9852269887924194</v>
+        <v>0.9999707937240601</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9985902905464172</v>
+        <v>0.999972939491272</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9985228180885315</v>
+        <v>0.9995800852775574</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9968608617782593</v>
+        <v>0.9995933175086975</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9985949397087097</v>
+        <v>0.9997602105140686</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.997312068939209</v>
+        <v>0.9999703168869019</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9980106949806213</v>
+        <v>0.9997681975364685</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9986186027526855</v>
+        <v>0.9998348951339722</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9977172613143921</v>
+        <v>0.9999639987945557</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.942782998085022</v>
+        <v>0.9726162552833557</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9986664056777954</v>
+        <v>0.6751627326011658</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9970097541809082</v>
+        <v>0.999972939491272</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9984377026557922</v>
+        <v>0.9997876286506653</v>
       </c>
     </row>
     <row r="122">
@@ -3838,19 +3838,19 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E122" t="b">
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9922783374786377</v>
+        <v>0.999971866607666</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.992871105670929</v>
+        <v>0.9997876286506653</v>
       </c>
     </row>
     <row r="124">
@@ -3894,19 +3894,19 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E124" t="b">
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9636566638946533</v>
+        <v>0.999971866607666</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9595471620559692</v>
+        <v>0.9997876286506653</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9984851479530334</v>
+        <v>0.9999711513519287</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9894211292266846</v>
+        <v>0.487206757068634</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.8841537237167358</v>
+        <v>0.999972939491272</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E129" t="b">
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.987721860408783</v>
+        <v>0.9999003410339355</v>
       </c>
     </row>
     <row r="130">
@@ -4062,19 +4062,19 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E130" t="b">
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9862638711929321</v>
+        <v>0.9999208450317383</v>
       </c>
     </row>
     <row r="131">
@@ -4090,19 +4090,19 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E131" t="b">
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9849568009376526</v>
+        <v>0.9999706745147705</v>
       </c>
     </row>
     <row r="132">
@@ -4118,19 +4118,19 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E132" t="b">
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9983685612678528</v>
+        <v>0.7437538504600525</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.7566566467285156</v>
+        <v>0.999970555305481</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.992373526096344</v>
+        <v>0.9999125003814697</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9985939860343933</v>
+        <v>0.9999603033065796</v>
       </c>
     </row>
     <row r="136">
@@ -4230,19 +4230,19 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9924446940422058</v>
+        <v>0.9995434880256653</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9985614418983459</v>
+        <v>0.9999698400497437</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9985226988792419</v>
+        <v>0.999901294708252</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9980058073997498</v>
+        <v>0.9999707937240601</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9863786697387695</v>
+        <v>0.9999723434448242</v>
       </c>
     </row>
     <row r="141">
@@ -4375,14 +4375,14 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9985633492469788</v>
+        <v>0.9956388473510742</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9941166639328003</v>
+        <v>0.999972939491272</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9985969662666321</v>
+        <v>0.9998320341110229</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9981912970542908</v>
+        <v>0.9999712705612183</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9984151124954224</v>
+        <v>0.9998320341110229</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9978651404380798</v>
+        <v>0.999968409538269</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9984740614891052</v>
+        <v>0.9997784495353699</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9985721111297607</v>
+        <v>0.9999603033065796</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9984090924263</v>
+        <v>0.9998171925544739</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9986664056777954</v>
+        <v>0.9996598958969116</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9981778860092163</v>
+        <v>0.999972939491272</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.991748571395874</v>
+        <v>0.7705866098403931</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9976661205291748</v>
+        <v>0.9999681711196899</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9977541565895081</v>
+        <v>0.9998126626014709</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9979986548423767</v>
+        <v>0.9999727010726929</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.998596727848053</v>
+        <v>0.9998063445091248</v>
       </c>
     </row>
     <row r="157">
@@ -4818,19 +4818,19 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E157" t="b">
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9927504062652588</v>
+        <v>0.9999722242355347</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9932129383087158</v>
+        <v>0.9998072981834412</v>
       </c>
     </row>
     <row r="159">
@@ -4874,19 +4874,19 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E159" t="b">
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9849568009376526</v>
+        <v>0.9999728202819824</v>
       </c>
     </row>
     <row r="160">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E160" t="b">
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9984126091003418</v>
+        <v>0.9977815747261047</v>
       </c>
     </row>
     <row r="161">
@@ -4930,19 +4930,19 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E161" t="b">
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.7658560872077942</v>
+        <v>0.9999696016311646</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9986664056777954</v>
+        <v>0.9997263550758362</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9981586337089539</v>
+        <v>0.9999638795852661</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9985186457633972</v>
+        <v>0.9998300075531006</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9980713725090027</v>
+        <v>0.9999698400497437</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9982967972755432</v>
+        <v>0.999432384967804</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.971721887588501</v>
+        <v>0.9995359182357788</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9986869692802429</v>
+        <v>0.9985277652740479</v>
       </c>
     </row>
     <row r="169">
@@ -5154,19 +5154,19 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E169" t="b">
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9924446940422058</v>
+        <v>0.999972939491272</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9985969662666321</v>
+        <v>0.9995359182357788</v>
       </c>
     </row>
     <row r="171">
@@ -5215,14 +5215,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9985364675521851</v>
+        <v>0.999697208404541</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9981265664100647</v>
+        <v>0.999972939491272</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E173" t="b">
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9865749478340149</v>
+        <v>0.9999456405639648</v>
       </c>
     </row>
     <row r="174">
@@ -5294,19 +5294,19 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9475229382514954</v>
+        <v>0.9999685287475586</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9983812570571899</v>
+        <v>0.9999456405639648</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9984439015388489</v>
+        <v>0.9999456405639648</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9983647465705872</v>
+        <v>0.9999685287475586</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9981974959373474</v>
+        <v>0.9999657869338989</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9975201487541199</v>
+        <v>0.9999715089797974</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.998196542263031</v>
+        <v>0.9999692440032959</v>
       </c>
     </row>
     <row r="181">
@@ -5495,14 +5495,14 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9706929326057434</v>
+        <v>0.9999672174453735</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9986346364021301</v>
+        <v>0.9999723434448242</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9178591966629028</v>
+        <v>0.9997511506080627</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.8152464628219604</v>
+        <v>0.9999727010726929</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9981607794761658</v>
+        <v>0.9999712705612183</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E186" t="b">
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.8344187140464783</v>
+        <v>0.9999717473983765</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9840171933174133</v>
+        <v>0.9999709129333496</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.997302770614624</v>
+        <v>0.9999711513519287</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.998427152633667</v>
+        <v>0.9999706745147705</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.997960090637207</v>
+        <v>0.9999713897705078</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E191" t="b">
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9983812570571899</v>
+        <v>0.9982497096061707</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E192" t="b">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9927504062652588</v>
+        <v>0.9999706745147705</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9986664056777954</v>
+        <v>0.999969482421875</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9975720047950745</v>
+        <v>0.9997662901878357</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9908201098442078</v>
+        <v>0.9995521903038025</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9985756874084473</v>
+        <v>0.9999713897705078</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9986099004745483</v>
+        <v>0.9999645948410034</v>
       </c>
     </row>
     <row r="198">
@@ -5966,19 +5966,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E198" t="b">
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9928033947944641</v>
+        <v>0.9999642372131348</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E199" t="b">
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9510631561279297</v>
+        <v>0.9999690055847168</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.998357355594635</v>
+        <v>0.9992814660072327</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9984685778617859</v>
+        <v>0.9999713897705078</v>
       </c>
     </row>
     <row r="202">
@@ -6078,19 +6078,19 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.5366523861885071</v>
+        <v>0.9999645948410034</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9981192946434021</v>
+        <v>0.9997442364692688</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.8864732980728149</v>
+        <v>0.9995335340499878</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9982852339744568</v>
+        <v>0.9999513626098633</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E206" t="b">
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9924446940422058</v>
+        <v>0.9999728202819824</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9877755641937256</v>
+        <v>0.9990473389625549</v>
       </c>
     </row>
     <row r="208">
@@ -6246,19 +6246,19 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9704336524009705</v>
+        <v>0.9999716281890869</v>
       </c>
     </row>
     <row r="209">
@@ -6274,19 +6274,19 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E209" t="b">
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.998474657535553</v>
+        <v>0.998906135559082</v>
       </c>
     </row>
     <row r="210">
@@ -6302,19 +6302,19 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9854477047920227</v>
+        <v>0.9999722242355347</v>
       </c>
     </row>
   </sheetData>
